--- a/material/standardpool.xlsx
+++ b/material/standardpool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristina Koetterl\iCloudDrive\Master\MA\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BA3F29-30F9-42BD-BFFB-61B6DE4C2AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09E5D15-642C-4828-9C30-4E8634218D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Vulnerability Notes Database</t>
   </si>
   <si>
-    <t>Carnegie Mellon University</t>
-  </si>
-  <si>
     <t>https://www.kb.cert.org/vuls/</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>commercial; link to CPE, CWE, CVE, ATT&amp;CK</t>
+  </si>
+  <si>
+    <t>SEI</t>
   </si>
 </sst>
 </file>
@@ -602,27 +602,9 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,9 +612,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,9 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,57 +630,81 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,780 +990,781 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="29.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.54296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="37.36328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="26"/>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="26"/>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="26"/>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="26"/>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="26"/>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="27"/>
+      <c r="C11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="D11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="F12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="28"/>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="28"/>
+      <c r="C14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="28"/>
+      <c r="C15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="F15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="28"/>
+      <c r="C16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="B17" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="29"/>
+      <c r="C18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="L18" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="21"/>
+      <c r="C20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="21"/>
+      <c r="C21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="21"/>
+      <c r="C22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="21"/>
+      <c r="C23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="12" t="s">
+      <c r="F23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="22"/>
+      <c r="C24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="116" x14ac:dyDescent="0.35">
-      <c r="B17" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="30"/>
-      <c r="C20" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="30"/>
-      <c r="C21" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="30"/>
-      <c r="C22" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="30"/>
-      <c r="C23" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="32"/>
-      <c r="C24" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="31" t="s">
+      <c r="L24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F25" s="34"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="35"/>
+      <c r="F26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1790,18 +1791,18 @@
     <hyperlink ref="F9" r:id="rId6" xr:uid="{2A5DE90D-684C-47A9-819C-B4EA0DBB2889}"/>
     <hyperlink ref="F10" r:id="rId7" xr:uid="{2C2EA5D7-C931-4FEC-ABA5-DDA5EFFAA0AD}"/>
     <hyperlink ref="F16" r:id="rId8" xr:uid="{478F39A5-AEA2-4FBC-9E41-A97B4AAE6E98}"/>
-    <hyperlink ref="F17" r:id="rId9" xr:uid="{896C8721-8A4D-46D1-8D86-7FE5CFDF6FAB}"/>
-    <hyperlink ref="F19" r:id="rId10" xr:uid="{BD2BCD9F-CF2D-4C04-9C6D-196FE8416A8A}"/>
-    <hyperlink ref="F20" r:id="rId11" xr:uid="{49948BE2-1D16-4F13-9285-644B43473631}"/>
-    <hyperlink ref="F21" r:id="rId12" xr:uid="{6A3FE29C-0A0F-4821-87C1-C52CD57B8B72}"/>
-    <hyperlink ref="F22" r:id="rId13" xr:uid="{258F8E8F-3821-4B78-B480-873BABBFF970}"/>
-    <hyperlink ref="F23" r:id="rId14" xr:uid="{6616DDA5-A9C6-4B9E-9DCD-6AC48B19FD81}"/>
-    <hyperlink ref="F24" r:id="rId15" xr:uid="{C5969056-4EB4-463D-917B-C5A4833FF53E}"/>
-    <hyperlink ref="F11" r:id="rId16" xr:uid="{F7EC9414-005E-4868-A0B7-F21D4E780D2B}"/>
-    <hyperlink ref="F12" r:id="rId17" xr:uid="{4825A356-7FE0-4772-8A54-8499713FA75F}"/>
-    <hyperlink ref="F13" r:id="rId18" xr:uid="{2CB7C450-6441-40F9-B7C8-8CED23F423D8}"/>
-    <hyperlink ref="F14" r:id="rId19" xr:uid="{ACB4F793-62D4-489F-870C-B0A7C515EB20}"/>
-    <hyperlink ref="F15" r:id="rId20" xr:uid="{8C3716FC-889C-4FD8-8B1E-E78D8632D8EC}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{F7EC9414-005E-4868-A0B7-F21D4E780D2B}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{4825A356-7FE0-4772-8A54-8499713FA75F}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{2CB7C450-6441-40F9-B7C8-8CED23F423D8}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{ACB4F793-62D4-489F-870C-B0A7C515EB20}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{8C3716FC-889C-4FD8-8B1E-E78D8632D8EC}"/>
+    <hyperlink ref="F24" r:id="rId14" xr:uid="{C5969056-4EB4-463D-917B-C5A4833FF53E}"/>
+    <hyperlink ref="F23" r:id="rId15" xr:uid="{6616DDA5-A9C6-4B9E-9DCD-6AC48B19FD81}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{258F8E8F-3821-4B78-B480-873BABBFF970}"/>
+    <hyperlink ref="F21" r:id="rId17" xr:uid="{6A3FE29C-0A0F-4821-87C1-C52CD57B8B72}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{49948BE2-1D16-4F13-9285-644B43473631}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{BD2BCD9F-CF2D-4C04-9C6D-196FE8416A8A}"/>
+    <hyperlink ref="F17" r:id="rId20" xr:uid="{896C8721-8A4D-46D1-8D86-7FE5CFDF6FAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/material/standardpool.xlsx
+++ b/material/standardpool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristina Koetterl\iCloudDrive\Master\MA\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09E5D15-642C-4828-9C30-4E8634218D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6BDB2E-2D19-4AA3-94D5-4568029FAF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8688" yWindow="25812" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>RISK TREAT</t>
   </si>
   <si>
-    <t>Standards</t>
-  </si>
-  <si>
     <t>CVSS</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t>CVSS Exploitability Metrics</t>
-  </si>
-  <si>
-    <t>Weaknesses and Vulnerabilities</t>
   </si>
   <si>
     <t>CWE</t>
@@ -417,6 +411,12 @@
   </si>
   <si>
     <t>SEI</t>
+  </si>
+  <si>
+    <t>Standards &amp; Enumerations</t>
+  </si>
+  <si>
+    <t>Weaknesses &amp; Vulnerabilities</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,9 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -659,6 +656,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,12 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,13 +692,31 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,44 +1002,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="4" width="29.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.26953125" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="23" t="s">
@@ -1039,12 +1050,12 @@
       <c r="L2" s="25"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="33"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1062,740 +1073,741 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B5" s="34"/>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="34"/>
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="26"/>
-      <c r="C6" s="5" t="s">
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="35"/>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="26"/>
-      <c r="C7" s="5" t="s">
+      <c r="E8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="26"/>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="26"/>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="26"/>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="26"/>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="27"/>
+      <c r="C12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="27"/>
-      <c r="C11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="J12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="38"/>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="28"/>
-      <c r="C13" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="G14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="38"/>
+      <c r="C15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="D15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="28"/>
-      <c r="C14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
-      <c r="C15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="39"/>
+      <c r="C16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="D16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="28"/>
-      <c r="C16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="B17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="116" x14ac:dyDescent="0.35">
-      <c r="B17" s="29" t="s">
+      <c r="G17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="32" t="s">
+      <c r="H17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="I17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="K17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="29"/>
-      <c r="C18" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="C18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>82</v>
+      <c r="L18" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>18</v>
+      <c r="G19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="21"/>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="H20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>18</v>
+      <c r="K20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="21"/>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>18</v>
+      <c r="G21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="21"/>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="H22" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>18</v>
+      <c r="L22" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>18</v>
+      <c r="G23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="22"/>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="G24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="I24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F25" s="18"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="19"/>
+      <c r="F26" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B4:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{EE03C280-9DD2-4148-A1B0-CB68CB3177D1}"/>
     <hyperlink ref="F5" r:id="rId2" xr:uid="{D6C70D8D-5B94-46AD-B230-15DB203192AE}"/>
     <hyperlink ref="F6" r:id="rId3" xr:uid="{D0386076-5BAB-4F7D-9320-B4B752181DF1}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{0AE6AC61-96B3-4E24-BD31-723ED0D4D4D2}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{BC24C3E1-4D5B-497E-9FB5-7F9E24F0ADD3}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{2A5DE90D-684C-47A9-819C-B4EA0DBB2889}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{2C2EA5D7-C931-4FEC-ABA5-DDA5EFFAA0AD}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{0AE6AC61-96B3-4E24-BD31-723ED0D4D4D2}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{BC24C3E1-4D5B-497E-9FB5-7F9E24F0ADD3}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{2A5DE90D-684C-47A9-819C-B4EA0DBB2889}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{2C2EA5D7-C931-4FEC-ABA5-DDA5EFFAA0AD}"/>
     <hyperlink ref="F16" r:id="rId8" xr:uid="{478F39A5-AEA2-4FBC-9E41-A97B4AAE6E98}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{F7EC9414-005E-4868-A0B7-F21D4E780D2B}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{4825A356-7FE0-4772-8A54-8499713FA75F}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{2CB7C450-6441-40F9-B7C8-8CED23F423D8}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{ACB4F793-62D4-489F-870C-B0A7C515EB20}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{8C3716FC-889C-4FD8-8B1E-E78D8632D8EC}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{F7EC9414-005E-4868-A0B7-F21D4E780D2B}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{4825A356-7FE0-4772-8A54-8499713FA75F}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{2CB7C450-6441-40F9-B7C8-8CED23F423D8}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{ACB4F793-62D4-489F-870C-B0A7C515EB20}"/>
+    <hyperlink ref="F7" r:id="rId13" xr:uid="{8C3716FC-889C-4FD8-8B1E-E78D8632D8EC}"/>
     <hyperlink ref="F24" r:id="rId14" xr:uid="{C5969056-4EB4-463D-917B-C5A4833FF53E}"/>
     <hyperlink ref="F23" r:id="rId15" xr:uid="{6616DDA5-A9C6-4B9E-9DCD-6AC48B19FD81}"/>
     <hyperlink ref="F22" r:id="rId16" xr:uid="{258F8E8F-3821-4B78-B480-873BABBFF970}"/>
